--- a/src/cardInfo.xlsx
+++ b/src/cardInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garub\OneDrive\ドキュメント\React\gamesample\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30153090-1118-491E-A80F-9A75AB254252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50F295-27C1-40F6-879F-FB388E5A30E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C208A45-A3BE-4B7B-8DB6-22F94B11B79E}"/>
+    <workbookView xWindow="435" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C208A45-A3BE-4B7B-8DB6-22F94B11B79E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -280,6 +280,10 @@
   </si>
   <si>
     <t>Joke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -644,15 +648,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7B3E5-A305-4948-9737-82575DD01E08}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -665,8 +672,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,8 +689,12 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" t="str">
+        <f>C2&amp;D2&amp;".png"</f>
+        <v>s1.png</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -693,8 +707,12 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E54" si="0">C3&amp;D3&amp;".png"</f>
+        <v>s2.png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -707,8 +725,12 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>s3.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -721,8 +743,12 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>s4.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -735,8 +761,12 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>s5.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -749,8 +779,12 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>s6.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -763,8 +797,12 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>s7.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -777,8 +815,12 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>s8.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -791,8 +833,12 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>s9.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -805,8 +851,12 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>s10.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -819,8 +869,12 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>s11.png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -833,8 +887,12 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>s12.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -847,8 +905,12 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>s13.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -861,8 +923,12 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>h1.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -875,8 +941,12 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>h2.png</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -889,8 +959,12 @@
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>h3.png</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -903,8 +977,12 @@
       <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>h4.png</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -917,8 +995,12 @@
       <c r="D19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>h5.png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -931,8 +1013,12 @@
       <c r="D20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>h6.png</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -945,8 +1031,12 @@
       <c r="D21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>h7.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -959,8 +1049,12 @@
       <c r="D22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>h8.png</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -973,8 +1067,12 @@
       <c r="D23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>h9.png</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -987,8 +1085,12 @@
       <c r="D24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>h10.png</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1001,8 +1103,12 @@
       <c r="D25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>h11.png</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1015,8 +1121,12 @@
       <c r="D26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>h12.png</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1029,8 +1139,12 @@
       <c r="D27">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>h13.png</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1043,8 +1157,12 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>d1.png</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1057,8 +1175,12 @@
       <c r="D29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>d2.png</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1071,8 +1193,12 @@
       <c r="D30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>d3.png</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1085,8 +1211,12 @@
       <c r="D31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>d4.png</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1099,8 +1229,12 @@
       <c r="D32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>d5.png</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1113,8 +1247,12 @@
       <c r="D33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>d6.png</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1127,8 +1265,12 @@
       <c r="D34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>d7.png</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1141,8 +1283,12 @@
       <c r="D35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>d8.png</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1155,8 +1301,12 @@
       <c r="D36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>d9.png</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1169,8 +1319,12 @@
       <c r="D37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>d10.png</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1183,8 +1337,12 @@
       <c r="D38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>d11.png</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1197,8 +1355,12 @@
       <c r="D39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>d12.png</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1211,8 +1373,12 @@
       <c r="D40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>d13.png</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1225,8 +1391,12 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>k1.png</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1239,8 +1409,12 @@
       <c r="D42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>k2.png</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1253,8 +1427,12 @@
       <c r="D43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>k3.png</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1267,8 +1445,12 @@
       <c r="D44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>k4.png</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1281,8 +1463,12 @@
       <c r="D45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>k5.png</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1295,8 +1481,12 @@
       <c r="D46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>k6.png</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1309,8 +1499,12 @@
       <c r="D47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>k7.png</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1323,8 +1517,12 @@
       <c r="D48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>k8.png</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1337,8 +1535,12 @@
       <c r="D49">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>k9.png</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1351,8 +1553,12 @@
       <c r="D50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>k10.png</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1365,8 +1571,12 @@
       <c r="D51">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>k11.png</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1379,8 +1589,12 @@
       <c r="D52">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>k12.png</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1393,8 +1607,12 @@
       <c r="D53">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>k13.png</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1406,6 +1624,10 @@
       </c>
       <c r="D54">
         <v>14</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>j14.png</v>
       </c>
     </row>
   </sheetData>

--- a/src/cardInfo.xlsx
+++ b/src/cardInfo.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garub\OneDrive\ドキュメント\React\gamesample\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F50F295-27C1-40F6-879F-FB388E5A30E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59B445-2CD4-42C2-9C67-E0161C54144A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C208A45-A3BE-4B7B-8DB6-22F94B11B79E}"/>
+    <workbookView xWindow="2355" yWindow="1365" windowWidth="21600" windowHeight="12510" xr2:uid="{0C208A45-A3BE-4B7B-8DB6-22F94B11B79E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,10 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7B3E5-A305-4948-9737-82575DD01E08}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
